--- a/Week 16/Methods/Points/ScoredC.xlsx
+++ b/Week 16/Methods/Points/ScoredC.xlsx
@@ -463,7 +463,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -477,7 +477,7 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>32.22222222222222</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -491,7 +491,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2.857142857142857</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
